--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed2/result_data_RandomForest.xlsx
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.90500000000001</v>
+        <v>-21.8982</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.180099999999995</v>
+        <v>-7.396899999999996</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3254</v>
+        <v>16.3745</v>
       </c>
     </row>
     <row r="20">
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-19.97719999999999</v>
+        <v>-20.06139999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.78089999999998</v>
+        <v>-20.54159999999998</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -845,15 +845,15 @@
         <v>-10.44</v>
       </c>
       <c r="D24" t="n">
-        <v>-7.335200000000006</v>
+        <v>-7.065700000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>16.53350000000001</v>
+        <v>16.97600000000002</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.54389999999999</v>
+        <v>-21.793</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.45180000000001</v>
+        <v>-12.5297</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.4685</v>
+        <v>15.50339999999999</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.95539999999999</v>
+        <v>-12.6581</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.34030000000001</v>
+        <v>16.2071</v>
       </c>
     </row>
     <row r="32">
@@ -1001,7 +1001,7 @@
         <v>-6.63</v>
       </c>
       <c r="E33" t="n">
-        <v>17.26540000000002</v>
+        <v>17.23440000000001</v>
       </c>
     </row>
     <row r="34">
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.6175</v>
+        <v>-12.89150000000001</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.9394</v>
+        <v>-11.87460000000001</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.9517</v>
+        <v>-11.8733</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.0402</v>
+        <v>-10.7726</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.77999999999998</v>
+        <v>-21.9053</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,13 +1369,13 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.7824</v>
+        <v>-13.8615</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.33160000000001</v>
+        <v>16.35570000000001</v>
       </c>
     </row>
     <row r="56">
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.46749999999999</v>
+        <v>-12.8336</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,16 +1397,16 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.9683</v>
+        <v>-21.9372</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.89419999999999</v>
+        <v>-12.54879999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>-9.100099999999998</v>
+        <v>-8.905299999999999</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.35780000000001</v>
+        <v>-22.16570000000002</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1474,7 +1474,7 @@
         <v>-11.89</v>
       </c>
       <c r="D61" t="n">
-        <v>-7.802900000000001</v>
+        <v>-7.837399999999997</v>
       </c>
       <c r="E61" t="n">
         <v>16.69</v>
@@ -1545,7 +1545,7 @@
         <v>-7.07</v>
       </c>
       <c r="E65" t="n">
-        <v>17.14400000000002</v>
+        <v>17.10350000000001</v>
       </c>
     </row>
     <row r="66">
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.53080000000001</v>
+        <v>-21.57950000000001</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1627,10 +1627,10 @@
         <v>-9.9</v>
       </c>
       <c r="D70" t="n">
-        <v>-7.943400000000001</v>
+        <v>-8.088200000000006</v>
       </c>
       <c r="E70" t="n">
-        <v>16.6983</v>
+        <v>16.809</v>
       </c>
     </row>
     <row r="71">
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.03530000000001</v>
+        <v>-12.51800000000001</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1715,7 +1715,7 @@
         <v>-7.62</v>
       </c>
       <c r="E75" t="n">
-        <v>16.9059</v>
+        <v>16.7664</v>
       </c>
     </row>
     <row r="76">
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.44470000000002</v>
+        <v>-20.61790000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.96909999999998</v>
+        <v>-22.0753</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1851,7 +1851,7 @@
         <v>-7.67</v>
       </c>
       <c r="E83" t="n">
-        <v>16.86949999999999</v>
+        <v>16.50919999999999</v>
       </c>
     </row>
     <row r="84">
@@ -1899,7 +1899,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-7.639099999999996</v>
+        <v>-7.640199999999994</v>
       </c>
       <c r="E86" t="n">
         <v>17.03</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.2046</v>
+        <v>-10.17070000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.54029999999999</v>
+        <v>-12.7598</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.51210000000001</v>
+        <v>-21.4624</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>15.60379999999999</v>
+        <v>15.86279999999999</v>
       </c>
     </row>
     <row r="97">
@@ -2089,7 +2089,7 @@
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.7321</v>
+        <v>16.7361</v>
       </c>
     </row>
     <row r="98">
@@ -2103,7 +2103,7 @@
         <v>-13.95</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.736399999999998</v>
+        <v>-8.926599999999993</v>
       </c>
       <c r="E98" t="n">
         <v>15.27</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.505499999999998</v>
+        <v>-8.894399999999992</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,7 +2171,7 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.711899999999996</v>
+        <v>-7.656499999999997</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
